--- a/stats/charts/bWAR/position_players/8_plus_ALL/WAR_8_plus.xlsx
+++ b/stats/charts/bWAR/position_players/8_plus_ALL/WAR_8_plus.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Documents\GitHub\baseball\stats\charts\batting\bWAR_top_282\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Documents\GitHub\baseball\stats\charts\bWAR\position_players\8_plus_ALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A6DE27-B4BE-461E-86F2-9B330E8CAAEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF8CE5B-C57A-4BE7-9AB4-2744090B1B5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top315" sheetId="1" r:id="rId1"/>
     <sheet name="main" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="MVP" sheetId="3" r:id="rId4"/>
+    <sheet name="UniquePlayers" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="MVP" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'top315'!$A$1:$H$316</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4966" uniqueCount="683">
   <si>
     <t>Player</t>
   </si>
@@ -2072,6 +2073,18 @@
   </si>
   <si>
     <t>youngro01</t>
+  </si>
+  <si>
+    <t>MVP Seasons</t>
+  </si>
+  <si>
+    <t>8+ bWAR Seasons</t>
+  </si>
+  <si>
+    <t>Hall of Famer?</t>
+  </si>
+  <si>
+    <t>Row</t>
   </si>
 </sst>
 </file>
@@ -11156,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11231,7 +11244,7 @@
         <v>Y</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(ISNUMBER(P2), "Y", "N")</f>
+        <f t="shared" ref="J2:J65" si="0">IF(ISNUMBER(P2), "Y", "N")</f>
         <v>N</v>
       </c>
       <c r="P2" t="e">
@@ -11269,7 +11282,7 @@
         <v>Y</v>
       </c>
       <c r="J3" t="str">
-        <f>IF(ISNUMBER(P3), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P3" t="e">
@@ -11307,7 +11320,7 @@
         <v>Y</v>
       </c>
       <c r="J4" t="str">
-        <f>IF(ISNUMBER(P4), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P4" t="e">
@@ -11345,7 +11358,7 @@
         <v>Y</v>
       </c>
       <c r="J5" t="str">
-        <f>IF(ISNUMBER(P5), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P5" t="e">
@@ -11383,7 +11396,7 @@
         <v>Y</v>
       </c>
       <c r="J6" t="str">
-        <f>IF(ISNUMBER(P6), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P6" t="e">
@@ -11421,7 +11434,7 @@
         <v>Y</v>
       </c>
       <c r="J7" t="str">
-        <f>IF(ISNUMBER(P7), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P7" t="e">
@@ -11459,7 +11472,7 @@
         <v>Y</v>
       </c>
       <c r="J8" t="str">
-        <f>IF(ISNUMBER(P8), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P8" t="e">
@@ -11497,12 +11510,12 @@
         <v>Y</v>
       </c>
       <c r="J9" t="str">
-        <f>IF(ISNUMBER(P9), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P9">
         <f t="array" ref="P9">MATCH(B9&amp;C9, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -11535,12 +11548,12 @@
         <v>N</v>
       </c>
       <c r="J10" t="str">
-        <f>IF(ISNUMBER(P10), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P10">
         <f t="array" ref="P10">MATCH(B10&amp;C10, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -11573,7 +11586,7 @@
         <v>N</v>
       </c>
       <c r="J11" t="str">
-        <f>IF(ISNUMBER(P11), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P11" t="e">
@@ -11611,12 +11624,12 @@
         <v>N</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(ISNUMBER(P12), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P12">
         <f t="array" ref="P12">MATCH(B12&amp;C12, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>4</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -11649,12 +11662,12 @@
         <v>Y</v>
       </c>
       <c r="J13" t="str">
-        <f>IF(ISNUMBER(P13), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P13">
         <f t="array" ref="P13">MATCH(B13&amp;C13, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -11687,7 +11700,7 @@
         <v>Y</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(ISNUMBER(P14), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P14" t="e">
@@ -11725,7 +11738,7 @@
         <v>N</v>
       </c>
       <c r="J15" t="str">
-        <f>IF(ISNUMBER(P15), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P15" t="e">
@@ -11763,12 +11776,12 @@
         <v>Y</v>
       </c>
       <c r="J16" t="str">
-        <f>IF(ISNUMBER(P16), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P16">
         <f t="array" ref="P16">MATCH(B16&amp;C16, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -11801,12 +11814,12 @@
         <v>Y</v>
       </c>
       <c r="J17" t="str">
-        <f>IF(ISNUMBER(P17), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P17">
         <f t="array" ref="P17">MATCH(B17&amp;C17, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -11839,7 +11852,7 @@
         <v>Y</v>
       </c>
       <c r="J18" t="str">
-        <f>IF(ISNUMBER(P18), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P18" t="e">
@@ -11877,7 +11890,7 @@
         <v>N</v>
       </c>
       <c r="J19" t="str">
-        <f>IF(ISNUMBER(P19), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P19" t="e">
@@ -11915,7 +11928,7 @@
         <v>N</v>
       </c>
       <c r="J20" t="str">
-        <f>IF(ISNUMBER(P20), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P20" t="e">
@@ -11953,7 +11966,7 @@
         <v>N</v>
       </c>
       <c r="J21" t="str">
-        <f>IF(ISNUMBER(P21), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P21" t="e">
@@ -11991,12 +12004,12 @@
         <v>Y</v>
       </c>
       <c r="J22" t="str">
-        <f>IF(ISNUMBER(P22), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P22">
         <f t="array" ref="P22">MATCH(B22&amp;C22, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -12029,7 +12042,7 @@
         <v>N</v>
       </c>
       <c r="J23" t="str">
-        <f>IF(ISNUMBER(P23), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P23" t="e">
@@ -12067,7 +12080,7 @@
         <v>N</v>
       </c>
       <c r="J24" t="str">
-        <f>IF(ISNUMBER(P24), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P24" t="e">
@@ -12105,7 +12118,7 @@
         <v>Y</v>
       </c>
       <c r="J25" t="str">
-        <f>IF(ISNUMBER(P25), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P25" t="e">
@@ -12143,7 +12156,7 @@
         <v>Y</v>
       </c>
       <c r="J26" t="str">
-        <f>IF(ISNUMBER(P26), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P26" t="e">
@@ -12181,7 +12194,7 @@
         <v>Y</v>
       </c>
       <c r="J27" t="str">
-        <f>IF(ISNUMBER(P27), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P27" t="e">
@@ -12219,7 +12232,7 @@
         <v>Y</v>
       </c>
       <c r="J28" t="str">
-        <f>IF(ISNUMBER(P28), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P28" t="e">
@@ -12257,7 +12270,7 @@
         <v>Y</v>
       </c>
       <c r="J29" t="str">
-        <f>IF(ISNUMBER(P29), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P29" t="e">
@@ -12295,7 +12308,7 @@
         <v>Y</v>
       </c>
       <c r="J30" t="str">
-        <f>IF(ISNUMBER(P30), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P30" t="e">
@@ -12333,12 +12346,12 @@
         <v>N</v>
       </c>
       <c r="J31" t="str">
-        <f>IF(ISNUMBER(P31), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P31">
         <f t="array" ref="P31">MATCH(B31&amp;C31, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>22</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -12371,12 +12384,12 @@
         <v>N</v>
       </c>
       <c r="J32" t="str">
-        <f>IF(ISNUMBER(P32), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P32">
         <f t="array" ref="P32">MATCH(B32&amp;C32, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -12409,12 +12422,12 @@
         <v>N</v>
       </c>
       <c r="J33" t="str">
-        <f>IF(ISNUMBER(P33), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P33">
         <f t="array" ref="P33">MATCH(B33&amp;C33, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -12447,12 +12460,12 @@
         <v>N</v>
       </c>
       <c r="J34" t="str">
-        <f>IF(ISNUMBER(P34), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P34">
         <f t="array" ref="P34">MATCH(B34&amp;C34, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>19</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -12485,7 +12498,7 @@
         <v>N</v>
       </c>
       <c r="J35" t="str">
-        <f>IF(ISNUMBER(P35), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P35" t="e">
@@ -12523,7 +12536,7 @@
         <v>N</v>
       </c>
       <c r="J36" t="str">
-        <f>IF(ISNUMBER(P36), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P36" t="e">
@@ -12561,7 +12574,7 @@
         <v>N</v>
       </c>
       <c r="J37" t="str">
-        <f>IF(ISNUMBER(P37), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P37" t="e">
@@ -12599,12 +12612,12 @@
         <v>N</v>
       </c>
       <c r="J38" t="str">
-        <f>IF(ISNUMBER(P38), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P38">
         <f t="array" ref="P38">MATCH(B38&amp;C38, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>18</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -12637,12 +12650,12 @@
         <v>N</v>
       </c>
       <c r="J39" t="str">
-        <f>IF(ISNUMBER(P39), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P39">
         <f t="array" ref="P39">MATCH(B39&amp;C39, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -12675,7 +12688,7 @@
         <v>N</v>
       </c>
       <c r="J40" t="str">
-        <f>IF(ISNUMBER(P40), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P40" t="e">
@@ -12713,12 +12726,12 @@
         <v>N</v>
       </c>
       <c r="J41" t="str">
-        <f>IF(ISNUMBER(P41), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P41">
         <f t="array" ref="P41">MATCH(B41&amp;C41, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -12751,7 +12764,7 @@
         <v>N</v>
       </c>
       <c r="J42" t="str">
-        <f>IF(ISNUMBER(P42), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P42" t="e">
@@ -12789,7 +12802,7 @@
         <v>N</v>
       </c>
       <c r="J43" t="str">
-        <f>IF(ISNUMBER(P43), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P43" t="e">
@@ -12827,12 +12840,12 @@
         <v>Y</v>
       </c>
       <c r="J44" t="str">
-        <f>IF(ISNUMBER(P44), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P44">
         <f t="array" ref="P44">MATCH(B44&amp;C44, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -12865,7 +12878,7 @@
         <v>Y</v>
       </c>
       <c r="J45" t="str">
-        <f>IF(ISNUMBER(P45), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P45" t="e">
@@ -12903,7 +12916,7 @@
         <v>N</v>
       </c>
       <c r="J46" t="str">
-        <f>IF(ISNUMBER(P46), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P46" t="e">
@@ -12941,7 +12954,7 @@
         <v>Y</v>
       </c>
       <c r="J47" t="str">
-        <f>IF(ISNUMBER(P47), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P47" t="e">
@@ -12979,12 +12992,12 @@
         <v>Y</v>
       </c>
       <c r="J48" t="str">
-        <f>IF(ISNUMBER(P48), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P48">
         <f t="array" ref="P48">MATCH(B48&amp;C48, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>27</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -13017,7 +13030,7 @@
         <v>Y</v>
       </c>
       <c r="J49" t="str">
-        <f>IF(ISNUMBER(P49), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P49" t="e">
@@ -13055,7 +13068,7 @@
         <v>Y</v>
       </c>
       <c r="J50" t="str">
-        <f>IF(ISNUMBER(P50), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P50" t="e">
@@ -13093,7 +13106,7 @@
         <v>Y</v>
       </c>
       <c r="J51" t="str">
-        <f>IF(ISNUMBER(P51), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P51" t="e">
@@ -13131,7 +13144,7 @@
         <v>N</v>
       </c>
       <c r="J52" t="str">
-        <f>IF(ISNUMBER(P52), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P52" t="e">
@@ -13169,7 +13182,7 @@
         <v>N</v>
       </c>
       <c r="J53" t="str">
-        <f>IF(ISNUMBER(P53), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P53" t="e">
@@ -13207,7 +13220,7 @@
         <v>N</v>
       </c>
       <c r="J54" t="str">
-        <f>IF(ISNUMBER(P54), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P54" t="e">
@@ -13245,12 +13258,12 @@
         <v>Y</v>
       </c>
       <c r="J55" t="str">
-        <f>IF(ISNUMBER(P55), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P55">
         <f t="array" ref="P55">MATCH(B55&amp;C55, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>39</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -13283,7 +13296,7 @@
         <v>Y</v>
       </c>
       <c r="J56" t="str">
-        <f>IF(ISNUMBER(P56), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P56" t="e">
@@ -13321,7 +13334,7 @@
         <v>N</v>
       </c>
       <c r="J57" t="str">
-        <f>IF(ISNUMBER(P57), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P57" t="e">
@@ -13359,7 +13372,7 @@
         <v>N</v>
       </c>
       <c r="J58" t="str">
-        <f>IF(ISNUMBER(P58), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P58" t="e">
@@ -13397,7 +13410,7 @@
         <v>N</v>
       </c>
       <c r="J59" t="str">
-        <f>IF(ISNUMBER(P59), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P59" t="e">
@@ -13435,7 +13448,7 @@
         <v>N</v>
       </c>
       <c r="J60" t="str">
-        <f>IF(ISNUMBER(P60), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P60" t="e">
@@ -13473,7 +13486,7 @@
         <v>Y</v>
       </c>
       <c r="J61" t="str">
-        <f>IF(ISNUMBER(P61), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P61" t="e">
@@ -13511,7 +13524,7 @@
         <v>Y</v>
       </c>
       <c r="J62" t="str">
-        <f>IF(ISNUMBER(P62), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P62" t="e">
@@ -13549,12 +13562,12 @@
         <v>Y</v>
       </c>
       <c r="J63" t="str">
-        <f>IF(ISNUMBER(P63), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
       <c r="P63">
         <f t="array" ref="P63">MATCH(B63&amp;C63, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -13587,7 +13600,7 @@
         <v>Y</v>
       </c>
       <c r="J64" t="str">
-        <f>IF(ISNUMBER(P64), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P64" t="e">
@@ -13625,7 +13638,7 @@
         <v>Y</v>
       </c>
       <c r="J65" t="str">
-        <f>IF(ISNUMBER(P65), "Y", "N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="P65" t="e">
@@ -13663,7 +13676,7 @@
         <v>Y</v>
       </c>
       <c r="J66" t="str">
-        <f>IF(ISNUMBER(P66), "Y", "N")</f>
+        <f t="shared" ref="J66:J129" si="1">IF(ISNUMBER(P66), "Y", "N")</f>
         <v>N</v>
       </c>
       <c r="P66" t="e">
@@ -13701,7 +13714,7 @@
         <v>Y</v>
       </c>
       <c r="J67" t="str">
-        <f>IF(ISNUMBER(P67), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P67" t="e">
@@ -13739,12 +13752,12 @@
         <v>Y</v>
       </c>
       <c r="J68" t="str">
-        <f>IF(ISNUMBER(P68), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P68">
         <f t="array" ref="P68">MATCH(B68&amp;C68, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -13777,7 +13790,7 @@
         <v>Y</v>
       </c>
       <c r="J69" t="str">
-        <f>IF(ISNUMBER(P69), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P69" t="e">
@@ -13815,7 +13828,7 @@
         <v>Y</v>
       </c>
       <c r="J70" t="str">
-        <f>IF(ISNUMBER(P70), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P70" t="e">
@@ -13853,7 +13866,7 @@
         <v>Y</v>
       </c>
       <c r="J71" t="str">
-        <f>IF(ISNUMBER(P71), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P71" t="e">
@@ -13891,12 +13904,12 @@
         <v>Y</v>
       </c>
       <c r="J72" t="str">
-        <f>IF(ISNUMBER(P72), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P72">
         <f t="array" ref="P72">MATCH(B72&amp;C72, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -13929,7 +13942,7 @@
         <v>Y</v>
       </c>
       <c r="J73" t="str">
-        <f>IF(ISNUMBER(P73), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P73" t="e">
@@ -13967,7 +13980,7 @@
         <v>Y</v>
       </c>
       <c r="J74" t="str">
-        <f>IF(ISNUMBER(P74), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P74" t="e">
@@ -14005,7 +14018,7 @@
         <v>Y</v>
       </c>
       <c r="J75" t="str">
-        <f>IF(ISNUMBER(P75), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P75" t="e">
@@ -14043,7 +14056,7 @@
         <v>Y</v>
       </c>
       <c r="J76" t="str">
-        <f>IF(ISNUMBER(P76), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P76" t="e">
@@ -14081,7 +14094,7 @@
         <v>Y</v>
       </c>
       <c r="J77" t="str">
-        <f>IF(ISNUMBER(P77), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P77" t="e">
@@ -14119,7 +14132,7 @@
         <v>Y</v>
       </c>
       <c r="J78" t="str">
-        <f>IF(ISNUMBER(P78), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P78" t="e">
@@ -14157,7 +14170,7 @@
         <v>N</v>
       </c>
       <c r="J79" t="str">
-        <f>IF(ISNUMBER(P79), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P79" t="e">
@@ -14195,7 +14208,7 @@
         <v>Y</v>
       </c>
       <c r="J80" t="str">
-        <f>IF(ISNUMBER(P80), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P80" t="e">
@@ -14233,7 +14246,7 @@
         <v>N</v>
       </c>
       <c r="J81" t="str">
-        <f>IF(ISNUMBER(P81), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P81" t="e">
@@ -14271,12 +14284,12 @@
         <v>Y</v>
       </c>
       <c r="J82" t="str">
-        <f>IF(ISNUMBER(P82), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P82">
         <f t="array" ref="P82">MATCH(B82&amp;C82, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -14309,12 +14322,12 @@
         <v>Y</v>
       </c>
       <c r="J83" t="str">
-        <f>IF(ISNUMBER(P83), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P83">
         <f t="array" ref="P83">MATCH(B83&amp;C83, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -14347,7 +14360,7 @@
         <v>Y</v>
       </c>
       <c r="J84" t="str">
-        <f>IF(ISNUMBER(P84), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P84" t="e">
@@ -14385,12 +14398,12 @@
         <v>N</v>
       </c>
       <c r="J85" t="str">
-        <f>IF(ISNUMBER(P85), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P85">
         <f t="array" ref="P85">MATCH(B85&amp;C85, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>56</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -14423,7 +14436,7 @@
         <v>N</v>
       </c>
       <c r="J86" t="str">
-        <f>IF(ISNUMBER(P86), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P86" t="e">
@@ -14461,7 +14474,7 @@
         <v>N</v>
       </c>
       <c r="J87" t="str">
-        <f>IF(ISNUMBER(P87), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P87" t="e">
@@ -14499,7 +14512,7 @@
         <v>N</v>
       </c>
       <c r="J88" t="str">
-        <f>IF(ISNUMBER(P88), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P88" t="e">
@@ -14537,7 +14550,7 @@
         <v>N</v>
       </c>
       <c r="J89" t="str">
-        <f>IF(ISNUMBER(P89), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P89" t="e">
@@ -14575,7 +14588,7 @@
         <v>N</v>
       </c>
       <c r="J90" t="str">
-        <f>IF(ISNUMBER(P90), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P90" t="e">
@@ -14613,12 +14626,12 @@
         <v>N</v>
       </c>
       <c r="J91" t="str">
-        <f>IF(ISNUMBER(P91), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P91">
         <f t="array" ref="P91">MATCH(B91&amp;C91, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -14651,7 +14664,7 @@
         <v>Y</v>
       </c>
       <c r="J92" t="str">
-        <f>IF(ISNUMBER(P92), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P92" t="e">
@@ -14689,7 +14702,7 @@
         <v>Y</v>
       </c>
       <c r="J93" t="str">
-        <f>IF(ISNUMBER(P93), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P93" t="e">
@@ -14727,12 +14740,12 @@
         <v>Y</v>
       </c>
       <c r="J94" t="str">
-        <f>IF(ISNUMBER(P94), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P94">
         <f t="array" ref="P94">MATCH(B94&amp;C94, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -14765,12 +14778,12 @@
         <v>Y</v>
       </c>
       <c r="J95" t="str">
-        <f>IF(ISNUMBER(P95), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P95">
         <f t="array" ref="P95">MATCH(B95&amp;C95, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -14803,7 +14816,7 @@
         <v>Y</v>
       </c>
       <c r="J96" t="str">
-        <f>IF(ISNUMBER(P96), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P96" t="e">
@@ -14841,7 +14854,7 @@
         <v>Y</v>
       </c>
       <c r="J97" t="str">
-        <f>IF(ISNUMBER(P97), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P97" t="e">
@@ -14879,12 +14892,12 @@
         <v>Y</v>
       </c>
       <c r="J98" t="str">
-        <f>IF(ISNUMBER(P98), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P98">
         <f t="array" ref="P98">MATCH(B98&amp;C98, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -14917,7 +14930,7 @@
         <v>Y</v>
       </c>
       <c r="J99" t="str">
-        <f>IF(ISNUMBER(P99), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P99" t="e">
@@ -14955,7 +14968,7 @@
         <v>Y</v>
       </c>
       <c r="J100" t="str">
-        <f>IF(ISNUMBER(P100), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P100" t="e">
@@ -14993,7 +15006,7 @@
         <v>Y</v>
       </c>
       <c r="J101" t="str">
-        <f>IF(ISNUMBER(P101), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P101" t="e">
@@ -15031,7 +15044,7 @@
         <v>Y</v>
       </c>
       <c r="J102" t="str">
-        <f>IF(ISNUMBER(P102), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P102" t="e">
@@ -15069,7 +15082,7 @@
         <v>Y</v>
       </c>
       <c r="J103" t="str">
-        <f>IF(ISNUMBER(P103), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P103" t="e">
@@ -15107,12 +15120,12 @@
         <v>Y</v>
       </c>
       <c r="J104" t="str">
-        <f>IF(ISNUMBER(P104), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P104">
         <f t="array" ref="P104">MATCH(B104&amp;C104, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -15145,7 +15158,7 @@
         <v>N</v>
       </c>
       <c r="J105" t="str">
-        <f>IF(ISNUMBER(P105), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P105" t="e">
@@ -15183,7 +15196,7 @@
         <v>N</v>
       </c>
       <c r="J106" t="str">
-        <f>IF(ISNUMBER(P106), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P106" t="e">
@@ -15221,7 +15234,7 @@
         <v>N</v>
       </c>
       <c r="J107" t="str">
-        <f>IF(ISNUMBER(P107), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P107" t="e">
@@ -15259,12 +15272,12 @@
         <v>Y</v>
       </c>
       <c r="J108" t="str">
-        <f>IF(ISNUMBER(P108), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P108">
         <f t="array" ref="P108">MATCH(B108&amp;C108, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -15297,7 +15310,7 @@
         <v>N</v>
       </c>
       <c r="J109" t="str">
-        <f>IF(ISNUMBER(P109), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P109" t="e">
@@ -15335,12 +15348,12 @@
         <v>Y</v>
       </c>
       <c r="J110" t="str">
-        <f>IF(ISNUMBER(P110), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P110">
         <f t="array" ref="P110">MATCH(B110&amp;C110, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>80</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -15373,7 +15386,7 @@
         <v>Y</v>
       </c>
       <c r="J111" t="str">
-        <f>IF(ISNUMBER(P111), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P111" t="e">
@@ -15411,7 +15424,7 @@
         <v>Y</v>
       </c>
       <c r="J112" t="str">
-        <f>IF(ISNUMBER(P112), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P112" t="e">
@@ -15449,7 +15462,7 @@
         <v>N</v>
       </c>
       <c r="J113" t="str">
-        <f>IF(ISNUMBER(P113), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P113" t="e">
@@ -15487,7 +15500,7 @@
         <v>Y</v>
       </c>
       <c r="J114" t="str">
-        <f>IF(ISNUMBER(P114), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P114" t="e">
@@ -15525,7 +15538,7 @@
         <v>Y</v>
       </c>
       <c r="J115" t="str">
-        <f>IF(ISNUMBER(P115), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P115" t="e">
@@ -15563,12 +15576,12 @@
         <v>N</v>
       </c>
       <c r="J116" t="str">
-        <f>IF(ISNUMBER(P116), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P116">
         <f t="array" ref="P116">MATCH(B116&amp;C116, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>84</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -15601,12 +15614,12 @@
         <v>N</v>
       </c>
       <c r="J117" t="str">
-        <f>IF(ISNUMBER(P117), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P117">
         <f t="array" ref="P117">MATCH(B117&amp;C117, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>85</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -15639,7 +15652,7 @@
         <v>Y</v>
       </c>
       <c r="J118" t="str">
-        <f>IF(ISNUMBER(P118), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P118" t="e">
@@ -15677,7 +15690,7 @@
         <v>N</v>
       </c>
       <c r="J119" t="str">
-        <f>IF(ISNUMBER(P119), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P119" t="e">
@@ -15715,7 +15728,7 @@
         <v>N</v>
       </c>
       <c r="J120" t="str">
-        <f>IF(ISNUMBER(P120), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P120" t="e">
@@ -15753,12 +15766,12 @@
         <v>Y</v>
       </c>
       <c r="J121" t="str">
-        <f>IF(ISNUMBER(P121), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P121">
         <f t="array" ref="P121">MATCH(B121&amp;C121, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -15791,7 +15804,7 @@
         <v>Y</v>
       </c>
       <c r="J122" t="str">
-        <f>IF(ISNUMBER(P122), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P122" t="e">
@@ -15829,7 +15842,7 @@
         <v>Y</v>
       </c>
       <c r="J123" t="str">
-        <f>IF(ISNUMBER(P123), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P123" t="e">
@@ -15867,7 +15880,7 @@
         <v>Y</v>
       </c>
       <c r="J124" t="str">
-        <f>IF(ISNUMBER(P124), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P124" t="e">
@@ -15905,7 +15918,7 @@
         <v>N</v>
       </c>
       <c r="J125" t="str">
-        <f>IF(ISNUMBER(P125), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P125" t="e">
@@ -15943,12 +15956,12 @@
         <v>Y</v>
       </c>
       <c r="J126" t="str">
-        <f>IF(ISNUMBER(P126), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P126">
         <f t="array" ref="P126">MATCH(B126&amp;C126, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -15981,7 +15994,7 @@
         <v>Y</v>
       </c>
       <c r="J127" t="str">
-        <f>IF(ISNUMBER(P127), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P127" t="e">
@@ -16019,7 +16032,7 @@
         <v>Y</v>
       </c>
       <c r="J128" t="str">
-        <f>IF(ISNUMBER(P128), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="P128" t="e">
@@ -16057,12 +16070,12 @@
         <v>Y</v>
       </c>
       <c r="J129" t="str">
-        <f>IF(ISNUMBER(P129), "Y", "N")</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="P129">
         <f t="array" ref="P129">MATCH(B129&amp;C129, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -16095,7 +16108,7 @@
         <v>Y</v>
       </c>
       <c r="J130" t="str">
-        <f>IF(ISNUMBER(P130), "Y", "N")</f>
+        <f t="shared" ref="J130:J193" si="2">IF(ISNUMBER(P130), "Y", "N")</f>
         <v>N</v>
       </c>
       <c r="P130" t="e">
@@ -16133,7 +16146,7 @@
         <v>Y</v>
       </c>
       <c r="J131" t="str">
-        <f>IF(ISNUMBER(P131), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P131" t="e">
@@ -16171,7 +16184,7 @@
         <v>Y</v>
       </c>
       <c r="J132" t="str">
-        <f>IF(ISNUMBER(P132), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P132" t="e">
@@ -16209,7 +16222,7 @@
         <v>Y</v>
       </c>
       <c r="J133" t="str">
-        <f>IF(ISNUMBER(P133), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P133" t="e">
@@ -16247,7 +16260,7 @@
         <v>Y</v>
       </c>
       <c r="J134" t="str">
-        <f>IF(ISNUMBER(P134), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P134" t="e">
@@ -16285,7 +16298,7 @@
         <v>N</v>
       </c>
       <c r="J135" t="str">
-        <f>IF(ISNUMBER(P135), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P135" t="e">
@@ -16323,7 +16336,7 @@
         <v>N</v>
       </c>
       <c r="J136" t="str">
-        <f>IF(ISNUMBER(P136), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P136" t="e">
@@ -16361,7 +16374,7 @@
         <v>Y</v>
       </c>
       <c r="J137" t="str">
-        <f>IF(ISNUMBER(P137), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P137" t="e">
@@ -16399,7 +16412,7 @@
         <v>Y</v>
       </c>
       <c r="J138" t="str">
-        <f>IF(ISNUMBER(P138), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P138" t="e">
@@ -16437,7 +16450,7 @@
         <v>N</v>
       </c>
       <c r="J139" t="str">
-        <f>IF(ISNUMBER(P139), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P139" t="e">
@@ -16475,7 +16488,7 @@
         <v>N</v>
       </c>
       <c r="J140" t="str">
-        <f>IF(ISNUMBER(P140), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P140" t="e">
@@ -16513,7 +16526,7 @@
         <v>N</v>
       </c>
       <c r="J141" t="str">
-        <f>IF(ISNUMBER(P141), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P141" t="e">
@@ -16551,7 +16564,7 @@
         <v>Y</v>
       </c>
       <c r="J142" t="str">
-        <f>IF(ISNUMBER(P142), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P142" t="e">
@@ -16589,7 +16602,7 @@
         <v>Y</v>
       </c>
       <c r="J143" t="str">
-        <f>IF(ISNUMBER(P143), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P143" t="e">
@@ -16627,7 +16640,7 @@
         <v>N</v>
       </c>
       <c r="J144" t="str">
-        <f>IF(ISNUMBER(P144), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P144" t="e">
@@ -16665,7 +16678,7 @@
         <v>Y</v>
       </c>
       <c r="J145" t="str">
-        <f>IF(ISNUMBER(P145), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P145" t="e">
@@ -16703,7 +16716,7 @@
         <v>Y</v>
       </c>
       <c r="J146" t="str">
-        <f>IF(ISNUMBER(P146), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P146" t="e">
@@ -16741,7 +16754,7 @@
         <v>Y</v>
       </c>
       <c r="J147" t="str">
-        <f>IF(ISNUMBER(P147), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P147" t="e">
@@ -16779,7 +16792,7 @@
         <v>N</v>
       </c>
       <c r="J148" t="str">
-        <f>IF(ISNUMBER(P148), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P148" t="e">
@@ -16817,7 +16830,7 @@
         <v>Y</v>
       </c>
       <c r="J149" t="str">
-        <f>IF(ISNUMBER(P149), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P149" t="e">
@@ -16855,7 +16868,7 @@
         <v>Y</v>
       </c>
       <c r="J150" t="str">
-        <f>IF(ISNUMBER(P150), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P150" t="e">
@@ -16893,7 +16906,7 @@
         <v>Y</v>
       </c>
       <c r="J151" t="str">
-        <f>IF(ISNUMBER(P151), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P151" t="e">
@@ -16931,7 +16944,7 @@
         <v>Y</v>
       </c>
       <c r="J152" t="str">
-        <f>IF(ISNUMBER(P152), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P152" t="e">
@@ -16969,7 +16982,7 @@
         <v>Y</v>
       </c>
       <c r="J153" t="str">
-        <f>IF(ISNUMBER(P153), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P153" t="e">
@@ -17007,7 +17020,7 @@
         <v>N</v>
       </c>
       <c r="J154" t="str">
-        <f>IF(ISNUMBER(P154), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P154" t="e">
@@ -17045,7 +17058,7 @@
         <v>N</v>
       </c>
       <c r="J155" t="str">
-        <f>IF(ISNUMBER(P155), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P155" t="e">
@@ -17083,7 +17096,7 @@
         <v>Y</v>
       </c>
       <c r="J156" t="str">
-        <f>IF(ISNUMBER(P156), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P156" t="e">
@@ -17121,7 +17134,7 @@
         <v>Y</v>
       </c>
       <c r="J157" t="str">
-        <f>IF(ISNUMBER(P157), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P157" t="e">
@@ -17159,12 +17172,12 @@
         <v>Y</v>
       </c>
       <c r="J158" t="str">
-        <f>IF(ISNUMBER(P158), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P158">
         <f t="array" ref="P158">MATCH(B158&amp;C158, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -17197,12 +17210,12 @@
         <v>Y</v>
       </c>
       <c r="J159" t="str">
-        <f>IF(ISNUMBER(P159), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P159">
         <f t="array" ref="P159">MATCH(B159&amp;C159, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -17235,7 +17248,7 @@
         <v>Y</v>
       </c>
       <c r="J160" t="str">
-        <f>IF(ISNUMBER(P160), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P160" t="e">
@@ -17273,7 +17286,7 @@
         <v>Y</v>
       </c>
       <c r="J161" t="str">
-        <f>IF(ISNUMBER(P161), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P161" t="e">
@@ -17311,7 +17324,7 @@
         <v>Y</v>
       </c>
       <c r="J162" t="str">
-        <f>IF(ISNUMBER(P162), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P162" t="e">
@@ -17349,7 +17362,7 @@
         <v>Y</v>
       </c>
       <c r="J163" t="str">
-        <f>IF(ISNUMBER(P163), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P163" t="e">
@@ -17387,7 +17400,7 @@
         <v>Y</v>
       </c>
       <c r="J164" t="str">
-        <f>IF(ISNUMBER(P164), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P164" t="e">
@@ -17425,7 +17438,7 @@
         <v>Y</v>
       </c>
       <c r="J165" t="str">
-        <f>IF(ISNUMBER(P165), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P165" t="e">
@@ -17463,12 +17476,12 @@
         <v>Y</v>
       </c>
       <c r="J166" t="str">
-        <f>IF(ISNUMBER(P166), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P166">
         <f t="array" ref="P166">MATCH(B166&amp;C166, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -17501,7 +17514,7 @@
         <v>Y</v>
       </c>
       <c r="J167" t="str">
-        <f>IF(ISNUMBER(P167), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P167" t="e">
@@ -17539,7 +17552,7 @@
         <v>Y</v>
       </c>
       <c r="J168" t="str">
-        <f>IF(ISNUMBER(P168), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P168" t="e">
@@ -17577,7 +17590,7 @@
         <v>Y</v>
       </c>
       <c r="J169" t="str">
-        <f>IF(ISNUMBER(P169), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P169" t="e">
@@ -17615,7 +17628,7 @@
         <v>Y</v>
       </c>
       <c r="J170" t="str">
-        <f>IF(ISNUMBER(P170), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P170" t="e">
@@ -17653,7 +17666,7 @@
         <v>Y</v>
       </c>
       <c r="J171" t="str">
-        <f>IF(ISNUMBER(P171), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P171" t="e">
@@ -17691,7 +17704,7 @@
         <v>Y</v>
       </c>
       <c r="J172" t="str">
-        <f>IF(ISNUMBER(P172), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P172" t="e">
@@ -17729,7 +17742,7 @@
         <v>Y</v>
       </c>
       <c r="J173" t="str">
-        <f>IF(ISNUMBER(P173), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P173" t="e">
@@ -17767,7 +17780,7 @@
         <v>Y</v>
       </c>
       <c r="J174" t="str">
-        <f>IF(ISNUMBER(P174), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P174" t="e">
@@ -17805,12 +17818,12 @@
         <v>Y</v>
       </c>
       <c r="J175" t="str">
-        <f>IF(ISNUMBER(P175), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P175">
         <f t="array" ref="P175">MATCH(B175&amp;C175, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>118</v>
+        <v>70</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
@@ -17843,12 +17856,12 @@
         <v>Y</v>
       </c>
       <c r="J176" t="str">
-        <f>IF(ISNUMBER(P176), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P176">
         <f t="array" ref="P176">MATCH(B176&amp;C176, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
@@ -17881,12 +17894,12 @@
         <v>N</v>
       </c>
       <c r="J177" t="str">
-        <f>IF(ISNUMBER(P177), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P177">
         <f t="array" ref="P177">MATCH(B177&amp;C177, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
@@ -17919,7 +17932,7 @@
         <v>Y</v>
       </c>
       <c r="J178" t="str">
-        <f>IF(ISNUMBER(P178), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P178" t="e">
@@ -17957,12 +17970,12 @@
         <v>Y</v>
       </c>
       <c r="J179" t="str">
-        <f>IF(ISNUMBER(P179), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P179">
         <f t="array" ref="P179">MATCH(B179&amp;C179, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>125</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -17995,7 +18008,7 @@
         <v>N</v>
       </c>
       <c r="J180" t="str">
-        <f>IF(ISNUMBER(P180), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P180" t="e">
@@ -18033,7 +18046,7 @@
         <v>Y</v>
       </c>
       <c r="J181" t="str">
-        <f>IF(ISNUMBER(P181), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P181" t="e">
@@ -18071,12 +18084,12 @@
         <v>Y</v>
       </c>
       <c r="J182" t="str">
-        <f>IF(ISNUMBER(P182), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P182">
         <f t="array" ref="P182">MATCH(B182&amp;C182, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -18109,12 +18122,12 @@
         <v>Y</v>
       </c>
       <c r="J183" t="str">
-        <f>IF(ISNUMBER(P183), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P183">
         <f t="array" ref="P183">MATCH(B183&amp;C183, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
@@ -18147,7 +18160,7 @@
         <v>Y</v>
       </c>
       <c r="J184" t="str">
-        <f>IF(ISNUMBER(P184), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P184" t="e">
@@ -18185,7 +18198,7 @@
         <v>Y</v>
       </c>
       <c r="J185" t="str">
-        <f>IF(ISNUMBER(P185), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P185" t="e">
@@ -18223,7 +18236,7 @@
         <v>Y</v>
       </c>
       <c r="J186" t="str">
-        <f>IF(ISNUMBER(P186), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P186" t="e">
@@ -18261,7 +18274,7 @@
         <v>N</v>
       </c>
       <c r="J187" t="str">
-        <f>IF(ISNUMBER(P187), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P187" t="e">
@@ -18299,7 +18312,7 @@
         <v>Y</v>
       </c>
       <c r="J188" t="str">
-        <f>IF(ISNUMBER(P188), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P188" t="e">
@@ -18337,7 +18350,7 @@
         <v>Y</v>
       </c>
       <c r="J189" t="str">
-        <f>IF(ISNUMBER(P189), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P189" t="e">
@@ -18375,7 +18388,7 @@
         <v>Y</v>
       </c>
       <c r="J190" t="str">
-        <f>IF(ISNUMBER(P190), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P190" t="e">
@@ -18413,12 +18426,12 @@
         <v>Y</v>
       </c>
       <c r="J191" t="str">
-        <f>IF(ISNUMBER(P191), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P191">
         <f t="array" ref="P191">MATCH(B191&amp;C191, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>135</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
@@ -18451,12 +18464,12 @@
         <v>Y</v>
       </c>
       <c r="J192" t="str">
-        <f>IF(ISNUMBER(P192), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="P192">
         <f t="array" ref="P192">MATCH(B192&amp;C192, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>134</v>
+        <v>53</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
@@ -18489,7 +18502,7 @@
         <v>Y</v>
       </c>
       <c r="J193" t="str">
-        <f>IF(ISNUMBER(P193), "Y", "N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="P193" t="e">
@@ -18527,12 +18540,12 @@
         <v>Y</v>
       </c>
       <c r="J194" t="str">
-        <f>IF(ISNUMBER(P194), "Y", "N")</f>
+        <f t="shared" ref="J194:J257" si="3">IF(ISNUMBER(P194), "Y", "N")</f>
         <v>Y</v>
       </c>
       <c r="P194">
         <f t="array" ref="P194">MATCH(B194&amp;C194, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>133</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
@@ -18565,7 +18578,7 @@
         <v>N</v>
       </c>
       <c r="J195" t="str">
-        <f>IF(ISNUMBER(P195), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P195" t="e">
@@ -18603,7 +18616,7 @@
         <v>Y</v>
       </c>
       <c r="J196" t="str">
-        <f>IF(ISNUMBER(P196), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P196" t="e">
@@ -18641,7 +18654,7 @@
         <v>N</v>
       </c>
       <c r="J197" t="str">
-        <f>IF(ISNUMBER(P197), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P197" t="e">
@@ -18679,7 +18692,7 @@
         <v>N</v>
       </c>
       <c r="J198" t="str">
-        <f>IF(ISNUMBER(P198), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P198" t="e">
@@ -18717,7 +18730,7 @@
         <v>Y</v>
       </c>
       <c r="J199" t="str">
-        <f>IF(ISNUMBER(P199), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P199" t="e">
@@ -18755,12 +18768,12 @@
         <v>N</v>
       </c>
       <c r="J200" t="str">
-        <f>IF(ISNUMBER(P200), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P200">
         <f t="array" ref="P200">MATCH(B200&amp;C200, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>148</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
@@ -18793,12 +18806,12 @@
         <v>N</v>
       </c>
       <c r="J201" t="str">
-        <f>IF(ISNUMBER(P201), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P201">
         <f t="array" ref="P201">MATCH(B201&amp;C201, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
@@ -18831,7 +18844,7 @@
         <v>N</v>
       </c>
       <c r="J202" t="str">
-        <f>IF(ISNUMBER(P202), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P202" t="e">
@@ -18869,7 +18882,7 @@
         <v>N</v>
       </c>
       <c r="J203" t="str">
-        <f>IF(ISNUMBER(P203), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P203" t="e">
@@ -18907,12 +18920,12 @@
         <v>N</v>
       </c>
       <c r="J204" t="str">
-        <f>IF(ISNUMBER(P204), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P204">
         <f t="array" ref="P204">MATCH(B204&amp;C204, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -18945,7 +18958,7 @@
         <v>N</v>
       </c>
       <c r="J205" t="str">
-        <f>IF(ISNUMBER(P205), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P205" t="e">
@@ -18983,7 +18996,7 @@
         <v>N</v>
       </c>
       <c r="J206" t="str">
-        <f>IF(ISNUMBER(P206), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P206" t="e">
@@ -19021,12 +19034,12 @@
         <v>Y</v>
       </c>
       <c r="J207" t="str">
-        <f>IF(ISNUMBER(P207), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P207">
         <f t="array" ref="P207">MATCH(B207&amp;C207, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -19059,7 +19072,7 @@
         <v>Y</v>
       </c>
       <c r="J208" t="str">
-        <f>IF(ISNUMBER(P208), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P208" t="e">
@@ -19097,12 +19110,12 @@
         <v>Y</v>
       </c>
       <c r="J209" t="str">
-        <f>IF(ISNUMBER(P209), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P209">
         <f t="array" ref="P209">MATCH(B209&amp;C209, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
@@ -19135,7 +19148,7 @@
         <v>Y</v>
       </c>
       <c r="J210" t="str">
-        <f>IF(ISNUMBER(P210), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P210" t="e">
@@ -19173,12 +19186,12 @@
         <v>Y</v>
       </c>
       <c r="J211" t="str">
-        <f>IF(ISNUMBER(P211), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P211">
         <f t="array" ref="P211">MATCH(B211&amp;C211, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
@@ -19211,7 +19224,7 @@
         <v>Y</v>
       </c>
       <c r="J212" t="str">
-        <f>IF(ISNUMBER(P212), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P212" t="e">
@@ -19249,7 +19262,7 @@
         <v>Y</v>
       </c>
       <c r="J213" t="str">
-        <f>IF(ISNUMBER(P213), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P213" t="e">
@@ -19287,7 +19300,7 @@
         <v>Y</v>
       </c>
       <c r="J214" t="str">
-        <f>IF(ISNUMBER(P214), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P214" t="e">
@@ -19325,12 +19338,12 @@
         <v>Y</v>
       </c>
       <c r="J215" t="str">
-        <f>IF(ISNUMBER(P215), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P215">
         <f t="array" ref="P215">MATCH(B215&amp;C215, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
@@ -19363,12 +19376,12 @@
         <v>N</v>
       </c>
       <c r="J216" t="str">
-        <f>IF(ISNUMBER(P216), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P216">
         <f t="array" ref="P216">MATCH(B216&amp;C216, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
@@ -19401,12 +19414,12 @@
         <v>N</v>
       </c>
       <c r="J217" t="str">
-        <f>IF(ISNUMBER(P217), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P217">
         <f t="array" ref="P217">MATCH(B217&amp;C217, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
@@ -19439,12 +19452,12 @@
         <v>N</v>
       </c>
       <c r="J218" t="str">
-        <f>IF(ISNUMBER(P218), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P218">
         <f t="array" ref="P218">MATCH(B218&amp;C218, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
@@ -19477,7 +19490,7 @@
         <v>N</v>
       </c>
       <c r="J219" t="str">
-        <f>IF(ISNUMBER(P219), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P219" t="e">
@@ -19515,7 +19528,7 @@
         <v>N</v>
       </c>
       <c r="J220" t="str">
-        <f>IF(ISNUMBER(P220), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P220" t="e">
@@ -19553,7 +19566,7 @@
         <v>N</v>
       </c>
       <c r="J221" t="str">
-        <f>IF(ISNUMBER(P221), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P221" t="e">
@@ -19591,7 +19604,7 @@
         <v>N</v>
       </c>
       <c r="J222" t="str">
-        <f>IF(ISNUMBER(P222), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P222" t="e">
@@ -19629,7 +19642,7 @@
         <v>N</v>
       </c>
       <c r="J223" t="str">
-        <f>IF(ISNUMBER(P223), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P223" t="e">
@@ -19667,7 +19680,7 @@
         <v>N</v>
       </c>
       <c r="J224" t="str">
-        <f>IF(ISNUMBER(P224), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P224" t="e">
@@ -19705,12 +19718,12 @@
         <v>N</v>
       </c>
       <c r="J225" t="str">
-        <f>IF(ISNUMBER(P225), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P225">
         <f t="array" ref="P225">MATCH(B225&amp;C225, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>162</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
@@ -19743,12 +19756,12 @@
         <v>N</v>
       </c>
       <c r="J226" t="str">
-        <f>IF(ISNUMBER(P226), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P226">
         <f t="array" ref="P226">MATCH(B226&amp;C226, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>163</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
@@ -19781,7 +19794,7 @@
         <v>Y</v>
       </c>
       <c r="J227" t="str">
-        <f>IF(ISNUMBER(P227), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P227" t="e">
@@ -19819,7 +19832,7 @@
         <v>Y</v>
       </c>
       <c r="J228" t="str">
-        <f>IF(ISNUMBER(P228), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P228" t="e">
@@ -19857,7 +19870,7 @@
         <v>Y</v>
       </c>
       <c r="J229" t="str">
-        <f>IF(ISNUMBER(P229), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P229" t="e">
@@ -19895,7 +19908,7 @@
         <v>Y</v>
       </c>
       <c r="J230" t="str">
-        <f>IF(ISNUMBER(P230), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P230" t="e">
@@ -19933,7 +19946,7 @@
         <v>Y</v>
       </c>
       <c r="J231" t="str">
-        <f>IF(ISNUMBER(P231), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P231" t="e">
@@ -19971,7 +19984,7 @@
         <v>Y</v>
       </c>
       <c r="J232" t="str">
-        <f>IF(ISNUMBER(P232), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P232" t="e">
@@ -20009,7 +20022,7 @@
         <v>Y</v>
       </c>
       <c r="J233" t="str">
-        <f>IF(ISNUMBER(P233), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P233" t="e">
@@ -20047,7 +20060,7 @@
         <v>Y</v>
       </c>
       <c r="J234" t="str">
-        <f>IF(ISNUMBER(P234), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P234" t="e">
@@ -20085,12 +20098,12 @@
         <v>Y</v>
       </c>
       <c r="J235" t="str">
-        <f>IF(ISNUMBER(P235), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P235">
         <f t="array" ref="P235">MATCH(B235&amp;C235, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
@@ -20123,7 +20136,7 @@
         <v>Y</v>
       </c>
       <c r="J236" t="str">
-        <f>IF(ISNUMBER(P236), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P236" t="e">
@@ -20161,7 +20174,7 @@
         <v>Y</v>
       </c>
       <c r="J237" t="str">
-        <f>IF(ISNUMBER(P237), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P237" t="e">
@@ -20199,7 +20212,7 @@
         <v>Y</v>
       </c>
       <c r="J238" t="str">
-        <f>IF(ISNUMBER(P238), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P238" t="e">
@@ -20237,12 +20250,12 @@
         <v>Y</v>
       </c>
       <c r="J239" t="str">
-        <f>IF(ISNUMBER(P239), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P239">
         <f t="array" ref="P239">MATCH(B239&amp;C239, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>165</v>
+        <v>131</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
@@ -20275,7 +20288,7 @@
         <v>Y</v>
       </c>
       <c r="J240" t="str">
-        <f>IF(ISNUMBER(P240), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P240" t="e">
@@ -20313,7 +20326,7 @@
         <v>Y</v>
       </c>
       <c r="J241" t="str">
-        <f>IF(ISNUMBER(P241), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P241" t="e">
@@ -20351,7 +20364,7 @@
         <v>Y</v>
       </c>
       <c r="J242" t="str">
-        <f>IF(ISNUMBER(P242), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P242" t="e">
@@ -20389,12 +20402,12 @@
         <v>Y</v>
       </c>
       <c r="J243" t="str">
-        <f>IF(ISNUMBER(P243), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P243">
         <f t="array" ref="P243">MATCH(B243&amp;C243, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.25">
@@ -20427,7 +20440,7 @@
         <v>Y</v>
       </c>
       <c r="J244" t="str">
-        <f>IF(ISNUMBER(P244), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P244" t="e">
@@ -20465,7 +20478,7 @@
         <v>Y</v>
       </c>
       <c r="J245" t="str">
-        <f>IF(ISNUMBER(P245), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P245" t="e">
@@ -20503,7 +20516,7 @@
         <v>Y</v>
       </c>
       <c r="J246" t="str">
-        <f>IF(ISNUMBER(P246), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P246" t="e">
@@ -20541,7 +20554,7 @@
         <v>N</v>
       </c>
       <c r="J247" t="str">
-        <f>IF(ISNUMBER(P247), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P247" t="e">
@@ -20579,12 +20592,12 @@
         <v>Y</v>
       </c>
       <c r="J248" t="str">
-        <f>IF(ISNUMBER(P248), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>Y</v>
       </c>
       <c r="P248">
         <f t="array" ref="P248">MATCH(B248&amp;C248, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
@@ -20617,7 +20630,7 @@
         <v>Y</v>
       </c>
       <c r="J249" t="str">
-        <f>IF(ISNUMBER(P249), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P249" t="e">
@@ -20655,7 +20668,7 @@
         <v>N</v>
       </c>
       <c r="J250" t="str">
-        <f>IF(ISNUMBER(P250), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P250" t="e">
@@ -20693,7 +20706,7 @@
         <v>Y</v>
       </c>
       <c r="J251" t="str">
-        <f>IF(ISNUMBER(P251), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P251" t="e">
@@ -20731,7 +20744,7 @@
         <v>Y</v>
       </c>
       <c r="J252" t="str">
-        <f>IF(ISNUMBER(P252), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P252" t="e">
@@ -20769,7 +20782,7 @@
         <v>Y</v>
       </c>
       <c r="J253" t="str">
-        <f>IF(ISNUMBER(P253), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P253" t="e">
@@ -20807,7 +20820,7 @@
         <v>N</v>
       </c>
       <c r="J254" t="str">
-        <f>IF(ISNUMBER(P254), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P254" t="e">
@@ -20845,7 +20858,7 @@
         <v>Y</v>
       </c>
       <c r="J255" t="str">
-        <f>IF(ISNUMBER(P255), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P255" t="e">
@@ -20883,7 +20896,7 @@
         <v>Y</v>
       </c>
       <c r="J256" t="str">
-        <f>IF(ISNUMBER(P256), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P256" t="e">
@@ -20921,7 +20934,7 @@
         <v>Y</v>
       </c>
       <c r="J257" t="str">
-        <f>IF(ISNUMBER(P257), "Y", "N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="P257" t="e">
@@ -20959,7 +20972,7 @@
         <v>Y</v>
       </c>
       <c r="J258" t="str">
-        <f>IF(ISNUMBER(P258), "Y", "N")</f>
+        <f t="shared" ref="J258:J300" si="4">IF(ISNUMBER(P258), "Y", "N")</f>
         <v>N</v>
       </c>
       <c r="P258" t="e">
@@ -20997,7 +21010,7 @@
         <v>Y</v>
       </c>
       <c r="J259" t="str">
-        <f>IF(ISNUMBER(P259), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P259" t="e">
@@ -21035,12 +21048,12 @@
         <v>Y</v>
       </c>
       <c r="J260" t="str">
-        <f>IF(ISNUMBER(P260), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="P260">
         <f t="array" ref="P260">MATCH(B260&amp;C260, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>174</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.25">
@@ -21073,7 +21086,7 @@
         <v>N</v>
       </c>
       <c r="J261" t="str">
-        <f>IF(ISNUMBER(P261), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P261" t="e">
@@ -21111,7 +21124,7 @@
         <v>N</v>
       </c>
       <c r="J262" t="str">
-        <f>IF(ISNUMBER(P262), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P262" t="e">
@@ -21149,7 +21162,7 @@
         <v>N</v>
       </c>
       <c r="J263" t="str">
-        <f>IF(ISNUMBER(P263), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P263" t="e">
@@ -21187,7 +21200,7 @@
         <v>N</v>
       </c>
       <c r="J264" t="str">
-        <f>IF(ISNUMBER(P264), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P264" t="e">
@@ -21225,7 +21238,7 @@
         <v>N</v>
       </c>
       <c r="J265" t="str">
-        <f>IF(ISNUMBER(P265), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P265" t="e">
@@ -21263,7 +21276,7 @@
         <v>Y</v>
       </c>
       <c r="J266" t="str">
-        <f>IF(ISNUMBER(P266), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P266" t="e">
@@ -21301,7 +21314,7 @@
         <v>N</v>
       </c>
       <c r="J267" t="str">
-        <f>IF(ISNUMBER(P267), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P267" t="e">
@@ -21339,12 +21352,12 @@
         <v>N</v>
       </c>
       <c r="J268" t="str">
-        <f>IF(ISNUMBER(P268), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="P268">
         <f t="array" ref="P268">MATCH(B268&amp;C268, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.25">
@@ -21377,7 +21390,7 @@
         <v>N</v>
       </c>
       <c r="J269" t="str">
-        <f>IF(ISNUMBER(P269), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P269" t="e">
@@ -21415,7 +21428,7 @@
         <v>N</v>
       </c>
       <c r="J270" t="str">
-        <f>IF(ISNUMBER(P270), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P270" t="e">
@@ -21453,7 +21466,7 @@
         <v>N</v>
       </c>
       <c r="J271" t="str">
-        <f>IF(ISNUMBER(P271), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P271" t="e">
@@ -21491,7 +21504,7 @@
         <v>N</v>
       </c>
       <c r="J272" t="str">
-        <f>IF(ISNUMBER(P272), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P272" t="e">
@@ -21529,7 +21542,7 @@
         <v>N</v>
       </c>
       <c r="J273" t="str">
-        <f>IF(ISNUMBER(P273), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P273" t="e">
@@ -21567,7 +21580,7 @@
         <v>N</v>
       </c>
       <c r="J274" t="str">
-        <f>IF(ISNUMBER(P274), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P274" t="e">
@@ -21605,7 +21618,7 @@
         <v>N</v>
       </c>
       <c r="J275" t="str">
-        <f>IF(ISNUMBER(P275), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P275" t="e">
@@ -21643,7 +21656,7 @@
         <v>Y</v>
       </c>
       <c r="J276" t="str">
-        <f>IF(ISNUMBER(P276), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P276" t="e">
@@ -21681,7 +21694,7 @@
         <v>Y</v>
       </c>
       <c r="J277" t="str">
-        <f>IF(ISNUMBER(P277), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P277" t="e">
@@ -21719,7 +21732,7 @@
         <v>Y</v>
       </c>
       <c r="J278" t="str">
-        <f>IF(ISNUMBER(P278), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P278" t="e">
@@ -21757,7 +21770,7 @@
         <v>Y</v>
       </c>
       <c r="J279" t="str">
-        <f>IF(ISNUMBER(P279), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P279" t="e">
@@ -21795,7 +21808,7 @@
         <v>Y</v>
       </c>
       <c r="J280" t="str">
-        <f>IF(ISNUMBER(P280), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P280" t="e">
@@ -21833,7 +21846,7 @@
         <v>Y</v>
       </c>
       <c r="J281" t="str">
-        <f>IF(ISNUMBER(P281), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P281" t="e">
@@ -21871,7 +21884,7 @@
         <v>Y</v>
       </c>
       <c r="J282" t="str">
-        <f>IF(ISNUMBER(P282), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P282" t="e">
@@ -21909,7 +21922,7 @@
         <v>Y</v>
       </c>
       <c r="J283" t="str">
-        <f>IF(ISNUMBER(P283), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P283" t="e">
@@ -21947,7 +21960,7 @@
         <v>Y</v>
       </c>
       <c r="J284" t="str">
-        <f>IF(ISNUMBER(P284), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P284" t="e">
@@ -21985,12 +21998,12 @@
         <v>N</v>
       </c>
       <c r="J285" t="str">
-        <f>IF(ISNUMBER(P285), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="P285">
         <f t="array" ref="P285">MATCH(B285&amp;C285, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.25">
@@ -22023,7 +22036,7 @@
         <v>Y</v>
       </c>
       <c r="J286" t="str">
-        <f>IF(ISNUMBER(P286), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P286" t="e">
@@ -22061,12 +22074,12 @@
         <v>Y</v>
       </c>
       <c r="J287" t="str">
-        <f>IF(ISNUMBER(P287), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="P287">
         <f t="array" ref="P287">MATCH(B287&amp;C287, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>193</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
@@ -22099,7 +22112,7 @@
         <v>Y</v>
       </c>
       <c r="J288" t="str">
-        <f>IF(ISNUMBER(P288), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P288" t="e">
@@ -22137,7 +22150,7 @@
         <v>Y</v>
       </c>
       <c r="J289" t="str">
-        <f>IF(ISNUMBER(P289), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P289" t="e">
@@ -22175,12 +22188,12 @@
         <v>Y</v>
       </c>
       <c r="J290" t="str">
-        <f>IF(ISNUMBER(P290), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="P290">
         <f t="array" ref="P290">MATCH(B290&amp;C290, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>192</v>
+        <v>54</v>
       </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.25">
@@ -22213,7 +22226,7 @@
         <v>Y</v>
       </c>
       <c r="J291" t="str">
-        <f>IF(ISNUMBER(P291), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P291" t="e">
@@ -22251,7 +22264,7 @@
         <v>Y</v>
       </c>
       <c r="J292" t="str">
-        <f>IF(ISNUMBER(P292), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P292" t="e">
@@ -22289,7 +22302,7 @@
         <v>N</v>
       </c>
       <c r="J293" t="str">
-        <f>IF(ISNUMBER(P293), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P293" t="e">
@@ -22327,7 +22340,7 @@
         <v>Y</v>
       </c>
       <c r="J294" t="str">
-        <f>IF(ISNUMBER(P294), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P294" t="e">
@@ -22365,7 +22378,7 @@
         <v>N</v>
       </c>
       <c r="J295" t="str">
-        <f>IF(ISNUMBER(P295), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P295" t="e">
@@ -22403,7 +22416,7 @@
         <v>Y</v>
       </c>
       <c r="J296" t="str">
-        <f>IF(ISNUMBER(P296), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P296" t="e">
@@ -22441,7 +22454,7 @@
         <v>Y</v>
       </c>
       <c r="J297" t="str">
-        <f>IF(ISNUMBER(P297), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P297" t="e">
@@ -22479,12 +22492,12 @@
         <v>Y</v>
       </c>
       <c r="J298" t="str">
-        <f>IF(ISNUMBER(P298), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="P298">
         <f t="array" ref="P298">MATCH(B298&amp;C298, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>195</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.25">
@@ -22517,12 +22530,12 @@
         <v>Y</v>
       </c>
       <c r="J299" t="str">
-        <f>IF(ISNUMBER(P299), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="P299">
         <f t="array" ref="P299">MATCH(B299&amp;C299, MVP!$A$1:$A$400&amp;MVP!$C$1:$C$400, 0)</f>
-        <v>196</v>
+        <v>127</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.25">
@@ -22555,7 +22568,7 @@
         <v>N</v>
       </c>
       <c r="J300" t="str">
-        <f>IF(ISNUMBER(P300), "Y", "N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="P300" t="e">
@@ -22572,6 +22585,2951 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48662B2-F4C0-49F6-8AFA-735425B8C5FF}">
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(ISNA(VLOOKUP(F2, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(ISNA(VLOOKUP(F3, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="0">1+A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(ISNA(VLOOKUP(F4, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(ISNA(VLOOKUP(F5, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(ISNA(VLOOKUP(F6, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(ISNA(VLOOKUP(F7, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(ISNA(VLOOKUP(F8, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(ISNA(VLOOKUP(F9, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(ISNA(VLOOKUP(F10, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(ISNA(VLOOKUP(F11, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(ISNA(VLOOKUP(F12, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(ISNA(VLOOKUP(F13, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(ISNA(VLOOKUP(F14, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(ISNA(VLOOKUP(F15, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(ISNA(VLOOKUP(F16, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(ISNA(VLOOKUP(F17, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(ISNA(VLOOKUP(F18, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(ISNA(VLOOKUP(F19, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(ISNA(VLOOKUP(F20, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(ISNA(VLOOKUP(F21, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(ISNA(VLOOKUP(F22, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(ISNA(VLOOKUP(F23, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(ISNA(VLOOKUP(F24, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(ISNA(VLOOKUP(F25, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(ISNA(VLOOKUP(F26, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(ISNA(VLOOKUP(F27, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(ISNA(VLOOKUP(F28, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(ISNA(VLOOKUP(F29, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(ISNA(VLOOKUP(F30, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(ISNA(VLOOKUP(F31, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(ISNA(VLOOKUP(F32, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(ISNA(VLOOKUP(F33, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(ISNA(VLOOKUP(F34, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(ISNA(VLOOKUP(F35, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(ISNA(VLOOKUP(F36, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(ISNA(VLOOKUP(F37, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(ISNA(VLOOKUP(F38, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(ISNA(VLOOKUP(F39, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(ISNA(VLOOKUP(F40, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(ISNA(VLOOKUP(F41, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f>IF(ISNA(VLOOKUP(F42, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f>IF(ISNA(VLOOKUP(F43, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f>IF(ISNA(VLOOKUP(F44, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f>IF(ISNA(VLOOKUP(F45, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <f>IF(ISNA(VLOOKUP(F46, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f>IF(ISNA(VLOOKUP(F47, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <f>IF(ISNA(VLOOKUP(F48, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="str">
+        <f>IF(ISNA(VLOOKUP(F49, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IF(ISNA(VLOOKUP(F50, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="str">
+        <f>IF(ISNA(VLOOKUP(F51, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IF(ISNA(VLOOKUP(F52, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <f>IF(ISNA(VLOOKUP(F53, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
+        <f>IF(ISNA(VLOOKUP(F54, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="str">
+        <f>IF(ISNA(VLOOKUP(F55, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <f>IF(ISNA(VLOOKUP(F56, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <f>IF(ISNA(VLOOKUP(F57, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <f>IF(ISNA(VLOOKUP(F58, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="str">
+        <f>IF(ISNA(VLOOKUP(F59, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F59" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="str">
+        <f>IF(ISNA(VLOOKUP(F60, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="str">
+        <f>IF(ISNA(VLOOKUP(F61, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f>IF(ISNA(VLOOKUP(F62, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <f>IF(ISNA(VLOOKUP(F63, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <f>IF(ISNA(VLOOKUP(F64, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <f>IF(ISNA(VLOOKUP(F65, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <f>IF(ISNA(VLOOKUP(F66, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <f>IF(ISNA(VLOOKUP(F67, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A131" si="1">1+A67</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <f>IF(ISNA(VLOOKUP(F68, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <f>IF(ISNA(VLOOKUP(F69, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <f>IF(ISNA(VLOOKUP(F70, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <f>IF(ISNA(VLOOKUP(F71, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="str">
+        <f>IF(ISNA(VLOOKUP(F72, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <f>IF(ISNA(VLOOKUP(F73, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <f>IF(ISNA(VLOOKUP(F74, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="str">
+        <f>IF(ISNA(VLOOKUP(F75, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f>IF(ISNA(VLOOKUP(F76, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F76" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f>IF(ISNA(VLOOKUP(F77, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f>IF(ISNA(VLOOKUP(F78, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <f>IF(ISNA(VLOOKUP(F79, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <f>IF(ISNA(VLOOKUP(F80, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <f>IF(ISNA(VLOOKUP(F81, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <f>IF(ISNA(VLOOKUP(F82, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <f>IF(ISNA(VLOOKUP(F83, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <f>IF(ISNA(VLOOKUP(F84, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <f>IF(ISNA(VLOOKUP(F85, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <f>IF(ISNA(VLOOKUP(F86, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <f>IF(ISNA(VLOOKUP(F87, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <f>IF(ISNA(VLOOKUP(F88, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <f>IF(ISNA(VLOOKUP(F89, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F89" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <f>IF(ISNA(VLOOKUP(F90, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F90" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <f>IF(ISNA(VLOOKUP(F91, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <f>IF(ISNA(VLOOKUP(F92, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F92" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <f>IF(ISNA(VLOOKUP(F93, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F93" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <f>IF(ISNA(VLOOKUP(F94, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <f>IF(ISNA(VLOOKUP(F95, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <f>IF(ISNA(VLOOKUP(F96, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <f>IF(ISNA(VLOOKUP(F97, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <f>IF(ISNA(VLOOKUP(F98, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <f>IF(ISNA(VLOOKUP(F99, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <f>IF(ISNA(VLOOKUP(F100, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <f>IF(ISNA(VLOOKUP(F101, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F101" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <f>IF(ISNA(VLOOKUP(F102, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <f>IF(ISNA(VLOOKUP(F103, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>327</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <f>IF(ISNA(VLOOKUP(F104, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F104" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="str">
+        <f>IF(ISNA(VLOOKUP(F105, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <f>IF(ISNA(VLOOKUP(F106, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F106" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <f>IF(ISNA(VLOOKUP(F107, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="str">
+        <f>IF(ISNA(VLOOKUP(F108, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <f>IF(ISNA(VLOOKUP(F109, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <f>IF(ISNA(VLOOKUP(F110, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="str">
+        <f>IF(ISNA(VLOOKUP(F111, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <f>IF(ISNA(VLOOKUP(F112, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="str">
+        <f>IF(ISNA(VLOOKUP(F113, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>321</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <f>IF(ISNA(VLOOKUP(F114, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F114" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="str">
+        <f>IF(ISNA(VLOOKUP(F115, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F115" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="str">
+        <f>IF(ISNA(VLOOKUP(F116, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <f>IF(ISNA(VLOOKUP(F117, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <f>IF(ISNA(VLOOKUP(F118, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F118" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <f>IF(ISNA(VLOOKUP(F119, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F119" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <f>IF(ISNA(VLOOKUP(F120, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F120" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <f>IF(ISNA(VLOOKUP(F121, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <f>IF(ISNA(VLOOKUP(F122, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F122" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="str">
+        <f>IF(ISNA(VLOOKUP(F123, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F123" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <f>IF(ISNA(VLOOKUP(F124, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="str">
+        <f>IF(ISNA(VLOOKUP(F125, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F125" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <f>IF(ISNA(VLOOKUP(F126, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F126" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <f>IF(ISNA(VLOOKUP(F127, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>313</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <f>IF(ISNA(VLOOKUP(F128, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F128" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <f>IF(ISNA(VLOOKUP(F129, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F129" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="str">
+        <f>IF(ISNA(VLOOKUP(F130, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <f>IF(ISNA(VLOOKUP(F131, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ref="A132:A133" si="2">1+A131</f>
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <f>IF(ISNA(VLOOKUP(F132, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F132" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <f>IF(ISNA(VLOOKUP(F133, Sheet1!A:A, 1, 0)), "No", "Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E302">
+    <sortCondition descending="1" ref="C2:C302"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B82E7E2-F847-4DCC-A7D1-F7C993C15B22}">
   <dimension ref="A1:I325"/>
   <sheetViews>
@@ -30217,12 +33175,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30249,69 +33208,69 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
         <v>336</v>
       </c>
       <c r="C2">
-        <v>1957</v>
+        <v>1911</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>336</v>
       </c>
       <c r="C3">
-        <v>1972</v>
+        <v>1911</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
         <v>336</v>
       </c>
       <c r="C4">
-        <v>2017</v>
+        <v>1912</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>336</v>
       </c>
       <c r="C5">
-        <v>1994</v>
+        <v>1912</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
         <v>336</v>
       </c>
       <c r="C6">
-        <v>1958</v>
+        <v>1913</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -30319,27 +33278,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>336</v>
       </c>
       <c r="C7">
-        <v>1959</v>
+        <v>1913</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>336</v>
       </c>
       <c r="C8">
-        <v>1979</v>
+        <v>1914</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -30347,55 +33306,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>336</v>
       </c>
       <c r="C9">
-        <v>1987</v>
+        <v>1914</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
         <v>336</v>
       </c>
       <c r="C10">
-        <v>1970</v>
+        <v>1922</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
         <v>336</v>
       </c>
       <c r="C11">
-        <v>1972</v>
+        <v>1923</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
         <v>336</v>
       </c>
       <c r="C12">
-        <v>1951</v>
+        <v>1924</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -30403,41 +33362,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="B13" t="s">
         <v>336</v>
       </c>
       <c r="C13">
-        <v>1954</v>
+        <v>1924</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>336</v>
       </c>
       <c r="C14">
-        <v>1955</v>
+        <v>1925</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
         <v>336</v>
       </c>
       <c r="C15">
-        <v>1971</v>
+        <v>1925</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -30445,27 +33404,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>336</v>
       </c>
       <c r="C16">
-        <v>1990</v>
+        <v>1926</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
         <v>336</v>
       </c>
       <c r="C17">
-        <v>1992</v>
+        <v>1926</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -30473,27 +33432,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
         <v>336</v>
       </c>
       <c r="C18">
-        <v>1993</v>
+        <v>1927</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>426</v>
       </c>
       <c r="B19" t="s">
         <v>336</v>
       </c>
       <c r="C19">
-        <v>2001</v>
+        <v>1927</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -30501,13 +33460,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>336</v>
       </c>
       <c r="C20">
-        <v>2002</v>
+        <v>1928</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -30515,27 +33474,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
         <v>336</v>
       </c>
       <c r="C21">
-        <v>2003</v>
+        <v>1928</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
         <v>336</v>
       </c>
       <c r="C22">
-        <v>2004</v>
+        <v>1929</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -30543,13 +33502,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
         <v>336</v>
       </c>
       <c r="C23">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -30557,13 +33516,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
         <v>336</v>
       </c>
       <c r="C24">
-        <v>1948</v>
+        <v>1931</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -30571,27 +33530,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s">
         <v>336</v>
       </c>
       <c r="C25">
-        <v>1964</v>
+        <v>1932</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s">
         <v>336</v>
       </c>
       <c r="C26">
-        <v>2011</v>
+        <v>1932</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -30599,13 +33558,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
         <v>336</v>
       </c>
       <c r="C27">
-        <v>1980</v>
+        <v>1933</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -30613,13 +33572,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="B28" t="s">
         <v>336</v>
       </c>
       <c r="C28">
-        <v>2016</v>
+        <v>1933</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -30627,13 +33586,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B29" t="s">
         <v>336</v>
       </c>
       <c r="C29">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -30641,27 +33600,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B30" t="s">
         <v>336</v>
       </c>
       <c r="C30">
-        <v>1974</v>
+        <v>1934</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B31" t="s">
         <v>336</v>
       </c>
       <c r="C31">
-        <v>2012</v>
+        <v>1935</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -30669,41 +33628,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B32" t="s">
         <v>336</v>
       </c>
       <c r="C32">
-        <v>2013</v>
+        <v>1935</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s">
         <v>336</v>
       </c>
       <c r="C33">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="B34" t="s">
         <v>336</v>
       </c>
       <c r="C34">
-        <v>1996</v>
+        <v>1936</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -30711,27 +33670,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s">
         <v>336</v>
       </c>
       <c r="C35">
-        <v>1951</v>
+        <v>1937</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s">
         <v>336</v>
       </c>
       <c r="C36">
-        <v>1953</v>
+        <v>1937</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -30739,41 +33698,41 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s">
         <v>336</v>
       </c>
       <c r="C37">
-        <v>1955</v>
+        <v>1938</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="B38" t="s">
         <v>336</v>
       </c>
       <c r="C38">
-        <v>1988</v>
+        <v>1938</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s">
         <v>336</v>
       </c>
       <c r="C39">
-        <v>1977</v>
+        <v>1939</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -30781,13 +33740,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="B40" t="s">
         <v>336</v>
       </c>
       <c r="C40">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -30795,41 +33754,41 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s">
         <v>336</v>
       </c>
       <c r="C41">
-        <v>1967</v>
+        <v>1940</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s">
         <v>336</v>
       </c>
       <c r="C42">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s">
         <v>336</v>
       </c>
       <c r="C43">
-        <v>1966</v>
+        <v>1941</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -30837,13 +33796,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s">
         <v>336</v>
       </c>
       <c r="C44">
-        <v>1986</v>
+        <v>1941</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -30851,27 +33810,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s">
         <v>336</v>
       </c>
       <c r="C45">
-        <v>1911</v>
+        <v>1942</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s">
         <v>336</v>
       </c>
       <c r="C46">
-        <v>1928</v>
+        <v>1942</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -30879,13 +33838,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s">
         <v>336</v>
       </c>
       <c r="C47">
-        <v>1934</v>
+        <v>1943</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -30893,27 +33852,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="B48" t="s">
         <v>336</v>
       </c>
       <c r="C48">
-        <v>1914</v>
+        <v>1943</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s">
         <v>336</v>
       </c>
       <c r="C49">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -30921,27 +33880,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s">
         <v>336</v>
       </c>
       <c r="C50">
-        <v>1913</v>
+        <v>1944</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s">
         <v>336</v>
       </c>
       <c r="C51">
-        <v>1987</v>
+        <v>1945</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -30949,41 +33908,41 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s">
         <v>336</v>
       </c>
       <c r="C52">
-        <v>1934</v>
+        <v>1945</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
         <v>336</v>
       </c>
       <c r="C53">
-        <v>1939</v>
+        <v>1946</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B54" t="s">
         <v>336</v>
       </c>
       <c r="C54">
-        <v>1941</v>
+        <v>1946</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -31005,55 +33964,55 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s">
         <v>336</v>
       </c>
       <c r="C56">
-        <v>2015</v>
+        <v>1947</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
         <v>336</v>
       </c>
       <c r="C57">
-        <v>1912</v>
+        <v>1948</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>361</v>
+        <v>254</v>
       </c>
       <c r="B58" t="s">
         <v>336</v>
       </c>
       <c r="C58">
-        <v>1992</v>
+        <v>1948</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>362</v>
+        <v>252</v>
       </c>
       <c r="B59" t="s">
         <v>336</v>
       </c>
       <c r="C59">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -31061,55 +34020,55 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
         <v>336</v>
       </c>
       <c r="C60">
-        <v>1914</v>
+        <v>1949</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s">
         <v>336</v>
       </c>
       <c r="C61">
-        <v>1981</v>
+        <v>1950</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s">
         <v>336</v>
       </c>
       <c r="C62">
-        <v>1977</v>
+        <v>1950</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B63" t="s">
         <v>336</v>
       </c>
       <c r="C63">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -31117,41 +34076,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s">
         <v>336</v>
       </c>
       <c r="C64">
-        <v>1932</v>
+        <v>1951</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s">
         <v>336</v>
       </c>
       <c r="C65">
-        <v>1933</v>
+        <v>1952</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>280</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s">
         <v>336</v>
       </c>
       <c r="C66">
-        <v>1938</v>
+        <v>1952</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -31159,13 +34118,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="B67" t="s">
         <v>336</v>
       </c>
       <c r="C67">
-        <v>1931</v>
+        <v>1953</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -31173,27 +34132,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
         <v>336</v>
       </c>
       <c r="C68">
-        <v>1974</v>
+        <v>1953</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s">
         <v>336</v>
       </c>
       <c r="C69">
-        <v>1937</v>
+        <v>1954</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -31201,27 +34160,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s">
         <v>336</v>
       </c>
       <c r="C70">
-        <v>1927</v>
+        <v>1954</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s">
         <v>336</v>
       </c>
       <c r="C71">
-        <v>1936</v>
+        <v>1955</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -31229,41 +34188,41 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s">
         <v>336</v>
       </c>
       <c r="C72">
-        <v>2000</v>
+        <v>1955</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>367</v>
+        <v>236</v>
       </c>
       <c r="B73" t="s">
         <v>336</v>
       </c>
       <c r="C73">
-        <v>1968</v>
+        <v>1956</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B74" t="s">
         <v>336</v>
       </c>
       <c r="C74">
-        <v>1988</v>
+        <v>1956</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -31271,27 +34230,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
         <v>336</v>
       </c>
       <c r="C75">
-        <v>1996</v>
+        <v>1957</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>369</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
         <v>336</v>
       </c>
       <c r="C76">
-        <v>1998</v>
+        <v>1957</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -31299,27 +34258,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
         <v>336</v>
       </c>
       <c r="C77">
-        <v>1942</v>
+        <v>1958</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s">
         <v>336</v>
       </c>
       <c r="C78">
-        <v>1935</v>
+        <v>1958</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -31327,27 +34286,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
         <v>336</v>
       </c>
       <c r="C79">
-        <v>1940</v>
+        <v>1959</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="B80" t="s">
         <v>336</v>
       </c>
       <c r="C80">
-        <v>1997</v>
+        <v>1959</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -31369,13 +34328,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B82" t="s">
         <v>336</v>
       </c>
       <c r="C82">
-        <v>1931</v>
+        <v>1960</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -31383,13 +34342,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B83" t="s">
         <v>336</v>
       </c>
       <c r="C83">
-        <v>2004</v>
+        <v>1961</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -31397,41 +34356,41 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
         <v>336</v>
       </c>
       <c r="C84">
-        <v>2010</v>
+        <v>1961</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="B85" t="s">
         <v>336</v>
       </c>
       <c r="C85">
-        <v>2015</v>
+        <v>1962</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="B86" t="s">
         <v>336</v>
       </c>
       <c r="C86">
-        <v>1935</v>
+        <v>1962</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -31439,13 +34398,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="B87" t="s">
         <v>336</v>
       </c>
       <c r="C87">
-        <v>1990</v>
+        <v>1963</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -31453,13 +34412,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="B88" t="s">
         <v>336</v>
       </c>
       <c r="C88">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -31467,41 +34426,41 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>376</v>
+        <v>232</v>
       </c>
       <c r="B89" t="s">
         <v>336</v>
       </c>
       <c r="C89">
-        <v>1984</v>
+        <v>1964</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="B90" t="s">
         <v>336</v>
       </c>
       <c r="C90">
-        <v>1925</v>
+        <v>1964</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="B91" t="s">
         <v>336</v>
       </c>
       <c r="C91">
-        <v>1929</v>
+        <v>1965</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -31509,13 +34468,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="B92" t="s">
         <v>336</v>
       </c>
       <c r="C92">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -31523,13 +34482,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>214</v>
       </c>
       <c r="B93" t="s">
         <v>336</v>
       </c>
       <c r="C93">
-        <v>2006</v>
+        <v>1966</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -31537,27 +34496,27 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>379</v>
+        <v>226</v>
       </c>
       <c r="B94" t="s">
         <v>336</v>
       </c>
       <c r="C94">
-        <v>1933</v>
+        <v>1966</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
         <v>336</v>
       </c>
       <c r="C95">
-        <v>1936</v>
+        <v>1967</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -31565,13 +34524,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s">
         <v>336</v>
       </c>
       <c r="C96">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -31579,27 +34538,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B97" t="s">
         <v>336</v>
       </c>
       <c r="C97">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B98" t="s">
         <v>336</v>
       </c>
       <c r="C98">
-        <v>1913</v>
+        <v>1968</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -31607,13 +34566,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B99" t="s">
         <v>336</v>
       </c>
       <c r="C99">
-        <v>1924</v>
+        <v>1969</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -31621,13 +34580,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>382</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
         <v>336</v>
       </c>
       <c r="C100">
-        <v>1999</v>
+        <v>1969</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -31635,13 +34594,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>383</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
         <v>336</v>
       </c>
       <c r="C101">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -31649,27 +34608,27 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="B102" t="s">
         <v>336</v>
       </c>
       <c r="C102">
-        <v>2014</v>
+        <v>1970</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="B103" t="s">
         <v>336</v>
       </c>
       <c r="C103">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -31677,13 +34636,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="B104" t="s">
         <v>336</v>
       </c>
       <c r="C104">
-        <v>1932</v>
+        <v>1971</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -31691,27 +34650,27 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="B105" t="s">
         <v>336</v>
       </c>
       <c r="C105">
-        <v>1950</v>
+        <v>1972</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
         <v>336</v>
       </c>
       <c r="C106">
-        <v>1963</v>
+        <v>1972</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -31719,27 +34678,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>389</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
         <v>336</v>
       </c>
       <c r="C107">
-        <v>1995</v>
+        <v>1973</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>186</v>
       </c>
       <c r="B108" t="s">
         <v>336</v>
       </c>
       <c r="C108">
-        <v>1938</v>
+        <v>1973</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -31747,13 +34706,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s">
         <v>336</v>
       </c>
       <c r="C109">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -31761,27 +34720,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="B110" t="s">
         <v>336</v>
       </c>
       <c r="C110">
-        <v>1956</v>
+        <v>1974</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
         <v>336</v>
       </c>
       <c r="C111">
-        <v>1957</v>
+        <v>1975</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -31789,27 +34748,27 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="B112" t="s">
         <v>336</v>
       </c>
       <c r="C112">
-        <v>1962</v>
+        <v>1975</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>391</v>
+        <v>184</v>
       </c>
       <c r="B113" t="s">
         <v>336</v>
       </c>
       <c r="C113">
-        <v>1944</v>
+        <v>1976</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
@@ -31817,13 +34776,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B114" t="s">
         <v>336</v>
       </c>
       <c r="C114">
-        <v>1960</v>
+        <v>1976</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -31831,13 +34790,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>392</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
         <v>336</v>
       </c>
       <c r="C115">
-        <v>1961</v>
+        <v>1977</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -31845,69 +34804,69 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>393</v>
+        <v>180</v>
       </c>
       <c r="B116" t="s">
         <v>336</v>
       </c>
       <c r="C116">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B117" t="s">
         <v>336</v>
       </c>
       <c r="C117">
-        <v>2009</v>
+        <v>1978</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="B118" t="s">
         <v>336</v>
       </c>
       <c r="C118">
-        <v>1954</v>
+        <v>1978</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
       <c r="B119" t="s">
         <v>336</v>
       </c>
       <c r="C119">
-        <v>1965</v>
+        <v>1979</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B120" t="s">
         <v>336</v>
       </c>
       <c r="C120">
-        <v>1940</v>
+        <v>1979</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -31915,13 +34874,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B121" t="s">
         <v>336</v>
       </c>
       <c r="C121">
-        <v>1969</v>
+        <v>1979</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
@@ -31929,27 +34888,27 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="B122" t="s">
         <v>336</v>
       </c>
       <c r="C122">
-        <v>2013</v>
+        <v>1980</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
         <v>336</v>
       </c>
       <c r="C123">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
@@ -31957,13 +34916,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s">
         <v>336</v>
       </c>
       <c r="C124">
-        <v>1968</v>
+        <v>1981</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -31971,13 +34930,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="B125" t="s">
         <v>336</v>
       </c>
       <c r="C125">
-        <v>1937</v>
+        <v>1981</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
@@ -31985,13 +34944,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B126" t="s">
         <v>336</v>
       </c>
       <c r="C126">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
@@ -31999,27 +34958,27 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B127" t="s">
         <v>336</v>
       </c>
       <c r="C127">
-        <v>1975</v>
+        <v>1982</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>400</v>
       </c>
       <c r="B128" t="s">
         <v>336</v>
       </c>
       <c r="C128">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
@@ -32027,13 +34986,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>398</v>
+        <v>140</v>
       </c>
       <c r="B129" t="s">
         <v>336</v>
       </c>
       <c r="C129">
-        <v>2006</v>
+        <v>1983</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -32041,13 +35000,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="B130" t="s">
         <v>336</v>
       </c>
       <c r="C130">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -32055,13 +35014,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>400</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
         <v>336</v>
       </c>
       <c r="C131">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
@@ -32069,27 +35028,27 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B132" t="s">
         <v>336</v>
       </c>
       <c r="C132">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
         <v>336</v>
       </c>
       <c r="C133">
-        <v>1943</v>
+        <v>1985</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
@@ -32097,27 +35056,27 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="B134" t="s">
         <v>336</v>
       </c>
       <c r="C134">
-        <v>1946</v>
+        <v>1986</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="B135" t="s">
         <v>336</v>
       </c>
       <c r="C135">
-        <v>1948</v>
+        <v>1986</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
@@ -32125,41 +35084,41 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="B136" t="s">
         <v>336</v>
       </c>
       <c r="C136">
-        <v>1956</v>
+        <v>1987</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="B137" t="s">
         <v>336</v>
       </c>
       <c r="C137">
-        <v>1944</v>
+        <v>1987</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="B138" t="s">
         <v>336</v>
       </c>
       <c r="C138">
-        <v>1945</v>
+        <v>1988</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -32167,13 +35126,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="B139" t="s">
         <v>336</v>
       </c>
       <c r="C139">
-        <v>1926</v>
+        <v>1988</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
@@ -32181,13 +35140,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B140" t="s">
         <v>336</v>
       </c>
       <c r="C140">
-        <v>1978</v>
+        <v>1989</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
@@ -32195,13 +35154,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>405</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
         <v>336</v>
       </c>
       <c r="C141">
-        <v>1925</v>
+        <v>1989</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
@@ -32209,41 +35168,41 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B142" t="s">
         <v>336</v>
       </c>
       <c r="C142">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>406</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>336</v>
       </c>
       <c r="C143">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B144" t="s">
         <v>336</v>
       </c>
       <c r="C144">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -32251,13 +35210,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>408</v>
+        <v>140</v>
       </c>
       <c r="B145" t="s">
         <v>336</v>
       </c>
       <c r="C145">
-        <v>1970</v>
+        <v>1991</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -32265,13 +35224,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B146" t="s">
         <v>336</v>
       </c>
       <c r="C146">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
@@ -32279,27 +35238,27 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
       <c r="B147" t="s">
         <v>336</v>
       </c>
       <c r="C147">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B148" t="s">
         <v>336</v>
       </c>
       <c r="C148">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="D148" t="s">
         <v>14</v>
@@ -32307,13 +35266,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B149" t="s">
         <v>336</v>
       </c>
       <c r="C149">
-        <v>1978</v>
+        <v>1993</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
@@ -32321,27 +35280,27 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B150" t="s">
         <v>336</v>
       </c>
       <c r="C150">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>418</v>
       </c>
       <c r="B151" t="s">
         <v>336</v>
       </c>
       <c r="C151">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
@@ -32349,27 +35308,27 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B152" t="s">
         <v>336</v>
       </c>
       <c r="C152">
-        <v>1950</v>
+        <v>1995</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>216</v>
+        <v>421</v>
       </c>
       <c r="B153" t="s">
         <v>336</v>
       </c>
       <c r="C153">
-        <v>1964</v>
+        <v>1995</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
@@ -32377,13 +35336,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>226</v>
+        <v>348</v>
       </c>
       <c r="B154" t="s">
         <v>336</v>
       </c>
       <c r="C154">
-        <v>1961</v>
+        <v>1996</v>
       </c>
       <c r="D154" t="s">
         <v>14</v>
@@ -32391,13 +35350,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>369</v>
       </c>
       <c r="B155" t="s">
         <v>336</v>
       </c>
       <c r="C155">
-        <v>1966</v>
+        <v>1996</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
@@ -32405,41 +35364,41 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>252</v>
+        <v>128</v>
       </c>
       <c r="B156" t="s">
         <v>336</v>
       </c>
       <c r="C156">
-        <v>1949</v>
+        <v>1997</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B157" t="s">
         <v>336</v>
       </c>
       <c r="C157">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="B158" t="s">
         <v>336</v>
       </c>
       <c r="C158">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
@@ -32447,21 +35406,21 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B159" t="s">
         <v>336</v>
       </c>
       <c r="C159">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B160" t="s">
         <v>336</v>
@@ -32470,32 +35429,32 @@
         <v>1999</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B161" t="s">
         <v>336</v>
       </c>
       <c r="C161">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="B162" t="s">
         <v>336</v>
       </c>
       <c r="C162">
-        <v>1953</v>
+        <v>2000</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -32503,13 +35462,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>383</v>
       </c>
       <c r="B163" t="s">
         <v>336</v>
       </c>
       <c r="C163">
-        <v>1973</v>
+        <v>2000</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
@@ -32517,41 +35476,41 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="B164" t="s">
         <v>336</v>
       </c>
       <c r="C164">
-        <v>1923</v>
+        <v>2001</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="B165" t="s">
         <v>336</v>
       </c>
       <c r="C165">
-        <v>1984</v>
+        <v>2001</v>
       </c>
       <c r="D165" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="B166" t="s">
         <v>336</v>
       </c>
       <c r="C166">
-        <v>1952</v>
+        <v>2002</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
@@ -32559,27 +35518,27 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="B167" t="s">
         <v>336</v>
       </c>
       <c r="C167">
-        <v>1980</v>
+        <v>2002</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="B168" t="s">
         <v>336</v>
       </c>
       <c r="C168">
-        <v>1981</v>
+        <v>2003</v>
       </c>
       <c r="D168" t="s">
         <v>14</v>
@@ -32587,27 +35546,27 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B169" t="s">
         <v>336</v>
       </c>
       <c r="C169">
-        <v>1986</v>
+        <v>2003</v>
       </c>
       <c r="D169" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>414</v>
+        <v>104</v>
       </c>
       <c r="B170" t="s">
         <v>336</v>
       </c>
       <c r="C170">
-        <v>1911</v>
+        <v>2004</v>
       </c>
       <c r="D170" t="s">
         <v>14</v>
@@ -32615,13 +35574,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="B171" t="s">
         <v>336</v>
       </c>
       <c r="C171">
-        <v>1952</v>
+        <v>2004</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -32629,97 +35588,97 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="B172" t="s">
         <v>336</v>
       </c>
       <c r="C172">
-        <v>1922</v>
+        <v>2005</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B173" t="s">
         <v>336</v>
       </c>
       <c r="C173">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="D173" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B174" t="s">
         <v>336</v>
       </c>
       <c r="C174">
-        <v>1912</v>
+        <v>2006</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B175" t="s">
         <v>336</v>
       </c>
       <c r="C175">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="D175" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B176" t="s">
         <v>336</v>
       </c>
       <c r="C176">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="D176" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>96</v>
+        <v>412</v>
       </c>
       <c r="B177" t="s">
         <v>336</v>
       </c>
       <c r="C177">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>417</v>
+        <v>72</v>
       </c>
       <c r="B178" t="s">
         <v>336</v>
       </c>
       <c r="C178">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -32727,27 +35686,27 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>418</v>
+        <v>84</v>
       </c>
       <c r="B179" t="s">
         <v>336</v>
       </c>
       <c r="C179">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B180" t="s">
         <v>336</v>
       </c>
       <c r="C180">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -32755,13 +35714,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="B181" t="s">
         <v>336</v>
       </c>
       <c r="C181">
-        <v>1971</v>
+        <v>2009</v>
       </c>
       <c r="D181" t="s">
         <v>14</v>
@@ -32769,13 +35728,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B182" t="s">
         <v>336</v>
       </c>
       <c r="C182">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
@@ -32783,27 +35742,27 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="B183" t="s">
         <v>336</v>
       </c>
       <c r="C183">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="B184" t="s">
         <v>336</v>
       </c>
       <c r="C184">
-        <v>1924</v>
+        <v>2011</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
@@ -32811,13 +35770,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B185" t="s">
         <v>336</v>
       </c>
       <c r="C185">
-        <v>1995</v>
+        <v>2011</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -32825,13 +35784,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="B186" t="s">
         <v>336</v>
       </c>
       <c r="C186">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -32839,41 +35798,41 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B187" t="s">
         <v>336</v>
       </c>
       <c r="C187">
-        <v>1965</v>
+        <v>2012</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>424</v>
+        <v>346</v>
       </c>
       <c r="B188" t="s">
         <v>336</v>
       </c>
       <c r="C188">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D188" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B189" t="s">
         <v>336</v>
       </c>
       <c r="C189">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="D189" t="s">
         <v>14</v>
@@ -32881,13 +35840,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="B190" t="s">
         <v>336</v>
       </c>
       <c r="C190">
-        <v>1939</v>
+        <v>2014</v>
       </c>
       <c r="D190" t="s">
         <v>14</v>
@@ -32895,27 +35854,27 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>426</v>
+        <v>56</v>
       </c>
       <c r="B191" t="s">
         <v>336</v>
       </c>
       <c r="C191">
-        <v>1927</v>
+        <v>2014</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="B192" t="s">
         <v>336</v>
       </c>
       <c r="C192">
-        <v>1946</v>
+        <v>2015</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -32923,27 +35882,27 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="B193" t="s">
         <v>336</v>
       </c>
       <c r="C193">
-        <v>1949</v>
+        <v>2015</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>427</v>
+        <v>343</v>
       </c>
       <c r="B194" t="s">
         <v>336</v>
       </c>
       <c r="C194">
-        <v>1962</v>
+        <v>2016</v>
       </c>
       <c r="D194" t="s">
         <v>14</v>
@@ -32951,13 +35910,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="B195" t="s">
         <v>336</v>
       </c>
       <c r="C195">
-        <v>1967</v>
+        <v>2016</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -32965,13 +35924,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="B196" t="s">
         <v>336</v>
       </c>
       <c r="C196">
-        <v>1982</v>
+        <v>2017</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -32979,19 +35938,22 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>168</v>
+        <v>416</v>
       </c>
       <c r="B197" t="s">
         <v>336</v>
       </c>
       <c r="C197">
-        <v>1989</v>
+        <v>2017</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D197">
+    <sortCondition ref="C2:C197"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>